--- a/2020projects/CBA_2020_10_11.xlsx
+++ b/2020projects/CBA_2020_10_11.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="147">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -109,7 +109,7 @@
     <t xml:space="preserve">JST</t>
   </si>
   <si>
-    <t xml:space="preserve">R12, R13, R14, R15, R16, R17, R18, R19, R20, R21</t>
+    <t xml:space="preserve">R12, R13, R14, R15, R16, R17, R18, R19</t>
   </si>
   <si>
     <t xml:space="preserve">RC0603JR-07220RL</t>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t xml:space="preserve">0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20, R21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1kΩ Resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22, R38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10kΩ Resistor</t>
   </si>
   <si>
     <t xml:space="preserve">C8, C9</t>
@@ -252,9 +264,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://file.elecfans.com/web1/M00/61/0C/o4YBAFt-dwWACUP4AAh1Wgzv73Y460.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10kΩ Resistor</t>
   </si>
   <si>
     <t xml:space="preserve">Uniohm</t>
@@ -972,14 +981,14 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="14.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.39"/>
@@ -1168,7 +1177,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>31</v>
@@ -1188,61 +1197,45 @@
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="3" t="n">
-        <v>4</v>
-      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="5"/>
       <c r="E11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>33</v>
@@ -1254,15 +1247,15 @@
     </row>
     <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>33</v>
@@ -1274,13 +1267,17 @@
     </row>
     <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5"/>
       <c r="E14" s="3" t="s">
         <v>48</v>
       </c>
@@ -1296,44 +1293,36 @@
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>34</v>
@@ -1342,118 +1331,118 @@
     </row>
     <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="H17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="C20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>603</v>
-      </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>603</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>603</v>
@@ -1461,119 +1450,119 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>603</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="C23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>603</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>93</v>
+      <c r="D24" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>98</v>
+      <c r="D25" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>104</v>
+      <c r="D26" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>12</v>
@@ -1582,166 +1571,212 @@
     </row>
     <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>109</v>
+      <c r="D27" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>115</v>
+      <c r="D28" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>118</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>121</v>
+      <c r="D29" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>126</v>
+      <c r="D30" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>12</v>
+        <v>120</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>131</v>
+      <c r="D31" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>473521001</v>
+        <v>127</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>136</v>
+      <c r="D32" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>473521001</v>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2" t="s">
+      <c r="F34" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0"/>
-    </row>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0"/>
+    </row>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1771,20 +1806,20 @@
     <hyperlink ref="D5" r:id="rId4" display="https://www.seeedstudio.com/opl.html"/>
     <hyperlink ref="D6" r:id="rId5" display="https://www.seeedstudio.com/opl.html"/>
     <hyperlink ref="D9" r:id="rId6" display="https://statics3.seeedstudio.com/images/opl/datasheet/301010163.pdf"/>
-    <hyperlink ref="D12" r:id="rId7" display="https://statics3.seeedstudio.com/images/opl/datasheet/0100340P1.pdf"/>
-    <hyperlink ref="D15" r:id="rId8" display="https://www.seeedstudio.com/opl.html"/>
-    <hyperlink ref="D16" r:id="rId9" display="https://www.seeedstudio.com/opl.html"/>
-    <hyperlink ref="D17" r:id="rId10" display="https://statics3.seeedstudio.com/images/opl/datasheet/0330020P1.pdf"/>
-    <hyperlink ref="D22" r:id="rId11" display="https://www.mouser.com/datasheet/2/783/BST-BME280_DS001-11-844833.pdf"/>
-    <hyperlink ref="D23" r:id="rId12" display="https://www.mouser.ca/datasheet/2/308/74VHC125-D-1802300.pdf"/>
-    <hyperlink ref="D24" r:id="rId13" display="https://www.vishay.com/docs/83122/tdsl31.pdf"/>
-    <hyperlink ref="D25" r:id="rId14" display="https://file.elecfans.com/web1/M00/9B/19/pIYBAF0in5uADzK0ABNP3f9TvMM941.pdf?filename=PCF8574_HGSEMI.pdf"/>
-    <hyperlink ref="D26" r:id="rId15" display="https://www.mouser.ca/datasheet/2/15/RKJXK-1370937.pdf"/>
-    <hyperlink ref="D27" r:id="rId16" display="https://www.winbond.com/resource-files/w25q64jv%20spi%20revg%2012142016.pdf"/>
-    <hyperlink ref="D29" r:id="rId17" display="https://www.murata.com/en-us/products/productdetail?partno=PKLCS1212E40A1-R1"/>
-    <hyperlink ref="D30" r:id="rId18" display="https://www.st.com/content/ccc/resource/technical/document/datasheet/b1/e0/c6/77/e6/54/4c/16/CD00000929.pdf/files/CD00000929.pdf/jcr:content/translations/en.CD00000929.pdf"/>
-    <hyperlink ref="D31" r:id="rId19" display="https://file.elecfans.com/web1/M00/BE/DF/pIYBAF7jMsqAGGQGAAXkupz0SS4756.pdf?filename=DS18B20-Maxim+Integrated.pdf"/>
-    <hyperlink ref="D33" r:id="rId20" display="https://www.st.com/content/ccc/resource/technical/document/datasheet/22/c6/56/13/dd/59/4b/43/CD00153511.pdf/files/CD00153511.pdf/jcr:content/translations/en.CD00153511.pdf"/>
+    <hyperlink ref="D14" r:id="rId7" display="https://statics3.seeedstudio.com/images/opl/datasheet/0100340P1.pdf"/>
+    <hyperlink ref="D17" r:id="rId8" display="https://www.seeedstudio.com/opl.html"/>
+    <hyperlink ref="D18" r:id="rId9" display="https://www.seeedstudio.com/opl.html"/>
+    <hyperlink ref="D19" r:id="rId10" display="https://statics3.seeedstudio.com/images/opl/datasheet/0330020P1.pdf"/>
+    <hyperlink ref="D24" r:id="rId11" display="https://www.mouser.com/datasheet/2/783/BST-BME280_DS001-11-844833.pdf"/>
+    <hyperlink ref="D25" r:id="rId12" display="https://www.mouser.ca/datasheet/2/308/74VHC125-D-1802300.pdf"/>
+    <hyperlink ref="D26" r:id="rId13" display="https://www.vishay.com/docs/83122/tdsl31.pdf"/>
+    <hyperlink ref="D27" r:id="rId14" display="https://file.elecfans.com/web1/M00/9B/19/pIYBAF0in5uADzK0ABNP3f9TvMM941.pdf?filename=PCF8574_HGSEMI.pdf"/>
+    <hyperlink ref="D28" r:id="rId15" display="https://www.mouser.ca/datasheet/2/15/RKJXK-1370937.pdf"/>
+    <hyperlink ref="D29" r:id="rId16" display="https://www.winbond.com/resource-files/w25q64jv%20spi%20revg%2012142016.pdf"/>
+    <hyperlink ref="D31" r:id="rId17" display="https://www.murata.com/en-us/products/productdetail?partno=PKLCS1212E40A1-R1"/>
+    <hyperlink ref="D32" r:id="rId18" display="https://www.st.com/content/ccc/resource/technical/document/datasheet/b1/e0/c6/77/e6/54/4c/16/CD00000929.pdf/files/CD00000929.pdf/jcr:content/translations/en.CD00000929.pdf"/>
+    <hyperlink ref="D33" r:id="rId19" display="https://file.elecfans.com/web1/M00/BE/DF/pIYBAF7jMsqAGGQGAAXkupz0SS4756.pdf?filename=DS18B20-Maxim+Integrated.pdf"/>
+    <hyperlink ref="D35" r:id="rId20" display="https://www.st.com/content/ccc/resource/technical/document/datasheet/22/c6/56/13/dd/59/4b/43/CD00153511.pdf/files/CD00153511.pdf/jcr:content/translations/en.CD00153511.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/2020projects/CBA_2020_10_11.xlsx
+++ b/2020projects/CBA_2020_10_11.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="153">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -109,7 +109,13 @@
     <t xml:space="preserve">JST</t>
   </si>
   <si>
-    <t xml:space="preserve">R12, R13, R14, R15, R16, R17, R18, R19</t>
+    <t xml:space="preserve">R33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10Ω Resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R12, R13, R14, R15, R16, R17, R18, R19, R34, R35, R36, R37</t>
   </si>
   <si>
     <t xml:space="preserve">RC0603JR-07220RL</t>
@@ -127,18 +133,30 @@
     <t xml:space="preserve">0603</t>
   </si>
   <si>
-    <t xml:space="preserve">R20, R21</t>
+    <t xml:space="preserve">R20, R21, R27</t>
   </si>
   <si>
     <t xml:space="preserve">1kΩ Resistor</t>
   </si>
   <si>
+    <t xml:space="preserve">R23, R24, R25, R26, R28, R29, R30, R32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7kΩ Resistor</t>
+  </si>
+  <si>
     <t xml:space="preserve">R22, R38</t>
   </si>
   <si>
     <t xml:space="preserve">10kΩ Resistor</t>
   </si>
   <si>
+    <t xml:space="preserve">R31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">390kΩ Resistor</t>
+  </si>
+  <si>
     <t xml:space="preserve">C8, C9</t>
   </si>
   <si>
@@ -151,7 +169,7 @@
     <t xml:space="preserve">100nF</t>
   </si>
   <si>
-    <t xml:space="preserve">C6, C7, C24, C25</t>
+    <t xml:space="preserve">C6, C7, C24, C25, C26</t>
   </si>
   <si>
     <t xml:space="preserve">10uF</t>
@@ -236,6 +254,403 @@
   </si>
   <si>
     <t xml:space="preserve">SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BME280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BME280 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.com/datasheet/2/783/BST-BME280_DS001-11-844833.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENSOR PRESSURE HUMIDITY TEMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5mmx2.5mm LGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74VHC125MTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74VHC125MTCX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.ca/datasheet/2/308/74VHC125-D-1802300.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMD IC Logic;4-bit CMOS Buffer;VCC 2V-6V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairchild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-Lead TSSOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 Segement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TDSL3160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vishay.com/docs/83122/tdsl31.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISPLAY 7-SEGMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCF8574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCF8574P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://file.elecfans.com/web1/M00/9B/19/pIYBAF0in5uADzK0ABNP3f9TvMM941.pdf?filename=PCF8574_HGSEMI.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCF8574 Chip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HGSEMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joystick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RKJXK122400Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mouser.ca/datasheet/2/15/RKJXK-1370937.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analog joystick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W25Q64JVSSIQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.winbond.com/resource-files/w25q64jv%20spi%20revg%2012142016.pdf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8-SOIC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0.209"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5.30mm)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Winbond </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8-SOIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP73831T-2ATI/OT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://file.elecfans.com/web1/M00/9F/3E/pIYBAF1AlmqAaVGPAAzcNzr-I_c971.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP73831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microchip</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">package sot23-5 SC-74A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SOT-753</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Buzzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PKLCS1212E40A1-R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.murata.com/en-us/products/productdetail?partno=PKLCS1212E40A1-R1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piezo buzzer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MJE3055T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.st.com/content/ccc/resource/technical/document/datasheet/b1/e0/c6/77/e6/54/4c/16/CD00000929.pdf/files/CD00000929.pdf/jcr:content/translations/en.CD00000929.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANS NPN 60V 10A TO-220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS18B20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS18B20+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://file.elecfans.com/web1/M00/BE/DF/pIYBAF7jMsqAGGQGAAXkupz0SS4756.pdf?filename=DS18B20-Maxim+Integrated.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-wire bus digital temperature sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO-92-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://file.elecfans.com/web1/M00/B3/8F/pIYBAF4dhv-AbFMKAAbJSrvkvQk535.pdf?filename=473521001_Molex.pdf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6 + 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">） </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">PC microSD </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Molex </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LM75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STLM75DS2F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.st.com/content/ccc/resource/technical/document/datasheet/22/c6/56/13/dd/59/4b/43/CD00153511.pdf/files/CD00153511.pdf/jcr:content/translations/en.CD00153511.pdf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8-TSSOP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8-MSOP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0.118"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF3C3C3C"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3.00mm) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still to be sorted:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RST,SCK, MOSI, NSS, DC, 3.3V</t>
   </si>
   <si>
     <r>
@@ -294,9 +709,6 @@
     <t xml:space="preserve">0603WAF3903T5E</t>
   </si>
   <si>
-    <t xml:space="preserve">390kΩ Resistor</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -320,400 +732,6 @@
   </si>
   <si>
     <t xml:space="preserve">0603WAJ0472T5E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7kΩ Resistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BME280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BME280 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.com/datasheet/2/783/BST-BME280_DS001-11-844833.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENSOR PRESSURE HUMIDITY TEMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5mmx2.5mm LGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74VHC125MTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74VHC125MTCX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.ca/datasheet/2/308/74VHC125-D-1802300.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMD IC Logic;4-bit CMOS Buffer;VCC 2V-6V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fairchild</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14-Lead TSSOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 Segement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDSL3160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.vishay.com/docs/83122/tdsl31.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISPLAY 7-SEGMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vishay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCF8574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCF8574P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://file.elecfans.com/web1/M00/9B/19/pIYBAF0in5uADzK0ABNP3f9TvMM941.pdf?filename=PCF8574_HGSEMI.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCF8574 Chip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HGSEMI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIP-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joystick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RKJXK122400Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mouser.ca/datasheet/2/15/RKJXK-1370937.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analog joystick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W25Q64JVSSIQ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.winbond.com/resource-files/w25q64jv%20spi%20revg%2012142016.pdf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8-SOIC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0.209"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5.30mm)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Winbond </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-SOIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP73831T-2ATI/OT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://file.elecfans.com/web1/M00/9F/3E/pIYBAF1AlmqAaVGPAAzcNzr-I_c971.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP73831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microchip</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">package sot23-5 SC-74A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SOT-753</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Buzzer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PKLCS1212E40A1-R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.murata.com/en-us/products/productdetail?partno=PKLCS1212E40A1-R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piezo buzzer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MJE3055T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.st.com/content/ccc/resource/technical/document/datasheet/b1/e0/c6/77/e6/54/4c/16/CD00000929.pdf/files/CD00000929.pdf/jcr:content/translations/en.CD00000929.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANS NPN 60V 10A TO-220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS18B20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DS18B20+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://file.elecfans.com/web1/M00/BE/DF/pIYBAF7jMsqAGGQGAAXkupz0SS4756.pdf?filename=DS18B20-Maxim+Integrated.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-wire bus digital temperature sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maxim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO-92-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://file.elecfans.com/web1/M00/B3/8F/pIYBAF4dhv-AbFMKAAbJSrvkvQk535.pdf?filename=473521001_Molex.pdf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6 + 2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">） </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PC microSD </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Molex </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LM75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STLM75DS2F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.st.com/content/ccc/resource/technical/document/datasheet/22/c6/56/13/dd/59/4b/43/CD00153511.pdf/files/CD00153511.pdf/jcr:content/translations/en.CD00153511.pdf</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8-TSSOP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8-MSOP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0.118"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3.00mm) </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ST</t>
   </si>
 </sst>
 </file>
@@ -723,7 +741,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -770,11 +788,29 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
+      <sz val="13"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <u val="single"/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
@@ -804,6 +840,13 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -855,7 +898,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -888,15 +931,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -981,14 +1036,14 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="14.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.39"/>
@@ -1053,7 +1108,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
@@ -1101,7 +1156,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>9</v>
@@ -1146,7 +1201,9 @@
         <v>25</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
         <v>26</v>
@@ -1160,7 +1217,9 @@
         <v>27</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="3" t="s">
         <v>28</v>
@@ -1173,38 +1232,40 @@
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1212,7 +1273,9 @@
         <v>37</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="n">
+        <v>3</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="3" t="s">
         <v>38</v>
@@ -1225,260 +1288,236 @@
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C15" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="E15" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" s="9" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="C17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="E17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" s="3"/>
+      <c r="F17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B19" s="3"/>
       <c r="C19" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>64</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D19" s="5"/>
       <c r="E19" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="G21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="C22" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="F22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>603</v>
-      </c>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="3" t="n">
-        <v>603</v>
-      </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>1</v>
@@ -1487,82 +1526,82 @@
         <v>74</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="3" t="n">
-        <v>603</v>
+        <v>76</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C24" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>12</v>
@@ -1571,46 +1610,46 @@
     </row>
     <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>12</v>
@@ -1619,91 +1658,91 @@
     </row>
     <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C29" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="G30" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="C30" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>126</v>
-      </c>
       <c r="G31" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>12</v>
@@ -1711,30 +1750,30 @@
     </row>
     <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C33" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B34" s="3" t="n">
         <v>473521001</v>
@@ -1743,41 +1782,125 @@
         <v>1</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="B37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0"/>
-    </row>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C38" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>603</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>603</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>603</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1805,11 +1928,11 @@
     <hyperlink ref="D4" r:id="rId3" display="https://statics3.seeedstudio.com/images/opl/datasheet/3460440P1.pdf"/>
     <hyperlink ref="D5" r:id="rId4" display="https://www.seeedstudio.com/opl.html"/>
     <hyperlink ref="D6" r:id="rId5" display="https://www.seeedstudio.com/opl.html"/>
-    <hyperlink ref="D9" r:id="rId6" display="https://statics3.seeedstudio.com/images/opl/datasheet/301010163.pdf"/>
-    <hyperlink ref="D14" r:id="rId7" display="https://statics3.seeedstudio.com/images/opl/datasheet/0100340P1.pdf"/>
-    <hyperlink ref="D17" r:id="rId8" display="https://www.seeedstudio.com/opl.html"/>
-    <hyperlink ref="D18" r:id="rId9" display="https://www.seeedstudio.com/opl.html"/>
-    <hyperlink ref="D19" r:id="rId10" display="https://statics3.seeedstudio.com/images/opl/datasheet/0330020P1.pdf"/>
+    <hyperlink ref="D10" r:id="rId6" display="https://statics3.seeedstudio.com/images/opl/datasheet/301010163.pdf"/>
+    <hyperlink ref="D17" r:id="rId7" display="https://statics3.seeedstudio.com/images/opl/datasheet/0100340P1.pdf"/>
+    <hyperlink ref="D20" r:id="rId8" display="https://www.seeedstudio.com/opl.html"/>
+    <hyperlink ref="D21" r:id="rId9" display="https://www.seeedstudio.com/opl.html"/>
+    <hyperlink ref="D22" r:id="rId10" display="https://statics3.seeedstudio.com/images/opl/datasheet/0330020P1.pdf"/>
     <hyperlink ref="D24" r:id="rId11" display="https://www.mouser.com/datasheet/2/783/BST-BME280_DS001-11-844833.pdf"/>
     <hyperlink ref="D25" r:id="rId12" display="https://www.mouser.ca/datasheet/2/308/74VHC125-D-1802300.pdf"/>
     <hyperlink ref="D26" r:id="rId13" display="https://www.vishay.com/docs/83122/tdsl31.pdf"/>

--- a/2020projects/CBA_2020_10_11.xlsx
+++ b/2020projects/CBA_2020_10_11.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="159">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -43,76 +43,106 @@
     <t xml:space="preserve">Package</t>
   </si>
   <si>
+    <t xml:space="preserve">J0, J1, J2, J3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220S-1*20P H=8.5MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.seeedstudio.com/opl.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header Socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ckmtw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J4, J6, J7, J8, J9, J11, J12, J25, J28, J29, J30, J31, J33, J34, J35, J36, J37, J38, J41, J42, J43, J44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210S-1*2P L=11.6MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Pins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J5, J13, J14, J15, J16, J17, J18, J19, J20, J21, J22, J23, J24, J26, J27, J39, J40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210S-1*3P L=11.6MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Pins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J4, J6, J7, J8, J9, J11, J12, J13, J14, J15, J16, J17, J18, J19, J20, J21, J22, J23, J24, J25, J26, J27, J28, J29, J30, J31, J33, J34, J35, J36, J37, J38, J39, J40, J41, J42, J43, J44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/3460440P1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumpers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAIFENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2P-2.54</t>
+  </si>
+  <si>
     <t xml:space="preserve">J10</t>
   </si>
   <si>
     <t xml:space="preserve">210S-1*6P L=11.6MM</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.seeedstudio.com/opl.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ckmtw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J4, J6, J7, J8, J9, J11, J12, J25, J28, J29, J30, J31, J33, J34, J35, J36, J37, J38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210S-1*2P L=11.6MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J4, J6, J7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/3460440P1.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumpers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAIFENG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2P-2.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J5, J13, J14, J15, J16, J17, J18, J19, J20, J21, J22, J23, J24, J26, J27, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">210S-1*3P L=11.6MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J0, J1, J2, J3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220S-1*20P H=8.5MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header Socket</t>
+    <t xml:space="preserve">6 Pins</t>
   </si>
   <si>
     <t xml:space="preserve">J32</t>
   </si>
   <si>
-    <t xml:space="preserve">4PIN</t>
+    <t xml:space="preserve">210S-1*4P L=11.6MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Pins</t>
   </si>
   <si>
     <t xml:space="preserve">JP1</t>
   </si>
   <si>
-    <t xml:space="preserve">JST</t>
+    <t xml:space="preserve">2.0-2P-LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTH JST Pin Header;2P-90D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTH-JST</t>
   </si>
   <si>
     <t xml:space="preserve">R33</t>
   </si>
   <si>
-    <t xml:space="preserve">10Ω Resistor</t>
+    <t xml:space="preserve">RC0603JR-0710RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/301010096.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yageo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0603</t>
   </si>
   <si>
     <t xml:space="preserve">R12, R13, R14, R15, R16, R17, R18, R19, R34, R35, R36, R37</t>
@@ -124,40 +154,58 @@
     <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/301010163.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">220 Ohm Resistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yageo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0603</t>
+    <t xml:space="preserve">220R</t>
   </si>
   <si>
     <t xml:space="preserve">R20, R21, R27</t>
   </si>
   <si>
-    <t xml:space="preserve">1kΩ Resistor</t>
+    <t xml:space="preserve">RC0603JR-071KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/301010291.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1K</t>
   </si>
   <si>
     <t xml:space="preserve">R23, R24, R25, R26, R28, R29, R30, R32</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7kΩ Resistor</t>
+    <t xml:space="preserve">RC0603JR-074K7L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/0010030P1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K7</t>
   </si>
   <si>
     <t xml:space="preserve">R22, R38</t>
   </si>
   <si>
-    <t xml:space="preserve">10kΩ Resistor</t>
+    <t xml:space="preserve">RC0603JR-0710KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/301010293.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10K</t>
   </si>
   <si>
     <t xml:space="preserve">R31</t>
   </si>
   <si>
-    <t xml:space="preserve">390kΩ Resistor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8, C9</t>
+    <t xml:space="preserve">RC0603FR-07390KL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://file.elecfans.com/web1/M00/8C/79/o4YBAFybNEaAI1D7AAYrMQV5Kx0928.pdf?filename=RC0603_GP_Chip+Resistor_Yageo.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">390K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8, C9, C23</t>
   </si>
   <si>
     <t xml:space="preserve">CC0603KRX7R9BB104 </t>
@@ -172,31 +220,28 @@
     <t xml:space="preserve">C6, C7, C24, C25, C26</t>
   </si>
   <si>
+    <t xml:space="preserve">TAJA106K016RNJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/0130050P1.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">10uF</t>
   </si>
   <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0603KRX7R8BB105 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/0100340P1.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1uF</t>
+    <t xml:space="preserve">AVX</t>
   </si>
   <si>
     <t xml:space="preserve">C21, C22</t>
   </si>
   <si>
+    <t xml:space="preserve">CC0603KRX7R6BB225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://statics3.seeedstudio.com/images/opl/datasheet/302010054.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1uF</t>
   </si>
   <si>
     <t xml:space="preserve">D2</t>
@@ -647,91 +692,7 @@
     <t xml:space="preserve">ST</t>
   </si>
   <si>
-    <t xml:space="preserve">Still to be sorted:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RST,SCK, MOSI, NSS, DC, 3.3V</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">OLED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">R1, R3, R4, R6</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">0603WAF1002T5E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://file.elecfans.com/web1/M00/61/0C/o4YBAFt-dwWACUP4AAh1Wgzv73Y460.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uniohm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">OLED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">R2</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">0603WAF3903T5E</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">OLED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF3C3C3C"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">R5</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">0603WAJ0472T5E</t>
+    <t xml:space="preserve">MSOP8</t>
   </si>
 </sst>
 </file>
@@ -741,7 +702,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -788,29 +749,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
       <sz val="13"/>
       <color rgb="FF3C3C3C"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <u val="single"/>
-      <sz val="12"/>
-      <color rgb="FF0563C1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
@@ -840,13 +782,6 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -898,7 +833,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -916,11 +851,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -931,27 +866,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1036,14 +959,14 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="14.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.39"/>
@@ -1084,7 +1007,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -1108,13 +1031,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>11</v>
@@ -1126,67 +1049,67 @@
     </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>320190003</v>
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>320190003</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
@@ -1198,410 +1121,478 @@
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="C9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C11" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C12" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C13" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="E14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="C16" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="E16" s="3" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>36</v>
+        <v>69</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1206</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" s="9" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="7"/>
+    <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="C18" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E18" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="E19" s="3" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="H21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>80</v>
+      <c r="D24" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="H24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>86</v>
+      <c r="D25" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>92</v>
+      <c r="D26" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>12</v>
@@ -1610,297 +1601,181 @@
     </row>
     <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>97</v>
+      <c r="D27" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H27" s="3"/>
+        <v>126</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>103</v>
+      <c r="D28" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>108</v>
+      <c r="D29" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>114</v>
+      <c r="D30" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>117</v>
+        <v>142</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>120</v>
+      <c r="D31" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>124</v>
+        <v>149</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>473521001</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>125</v>
+      <c r="D32" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>130</v>
+      <c r="D33" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>473521001</v>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G38" s="3" t="n">
-        <v>603</v>
-      </c>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="3" t="n">
-        <v>603</v>
-      </c>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G40" s="3" t="n">
-        <v>603</v>
-      </c>
-      <c r="H40" s="3"/>
-    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0"/>
+    </row>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1925,24 +1800,26 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://www.seeedstudio.com/opl.html"/>
     <hyperlink ref="D3" r:id="rId2" display="https://www.seeedstudio.com/opl.html"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://statics3.seeedstudio.com/images/opl/datasheet/3460440P1.pdf"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://www.seeedstudio.com/opl.html"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://www.seeedstudio.com/opl.html"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://statics3.seeedstudio.com/images/opl/datasheet/3460440P1.pdf"/>
     <hyperlink ref="D6" r:id="rId5" display="https://www.seeedstudio.com/opl.html"/>
     <hyperlink ref="D10" r:id="rId6" display="https://statics3.seeedstudio.com/images/opl/datasheet/301010163.pdf"/>
-    <hyperlink ref="D17" r:id="rId7" display="https://statics3.seeedstudio.com/images/opl/datasheet/0100340P1.pdf"/>
-    <hyperlink ref="D20" r:id="rId8" display="https://www.seeedstudio.com/opl.html"/>
-    <hyperlink ref="D21" r:id="rId9" display="https://www.seeedstudio.com/opl.html"/>
-    <hyperlink ref="D22" r:id="rId10" display="https://statics3.seeedstudio.com/images/opl/datasheet/0330020P1.pdf"/>
-    <hyperlink ref="D24" r:id="rId11" display="https://www.mouser.com/datasheet/2/783/BST-BME280_DS001-11-844833.pdf"/>
-    <hyperlink ref="D25" r:id="rId12" display="https://www.mouser.ca/datasheet/2/308/74VHC125-D-1802300.pdf"/>
-    <hyperlink ref="D26" r:id="rId13" display="https://www.vishay.com/docs/83122/tdsl31.pdf"/>
-    <hyperlink ref="D27" r:id="rId14" display="https://file.elecfans.com/web1/M00/9B/19/pIYBAF0in5uADzK0ABNP3f9TvMM941.pdf?filename=PCF8574_HGSEMI.pdf"/>
-    <hyperlink ref="D28" r:id="rId15" display="https://www.mouser.ca/datasheet/2/15/RKJXK-1370937.pdf"/>
-    <hyperlink ref="D29" r:id="rId16" display="https://www.winbond.com/resource-files/w25q64jv%20spi%20revg%2012142016.pdf"/>
-    <hyperlink ref="D31" r:id="rId17" display="https://www.murata.com/en-us/products/productdetail?partno=PKLCS1212E40A1-R1"/>
-    <hyperlink ref="D32" r:id="rId18" display="https://www.st.com/content/ccc/resource/technical/document/datasheet/b1/e0/c6/77/e6/54/4c/16/CD00000929.pdf/files/CD00000929.pdf/jcr:content/translations/en.CD00000929.pdf"/>
-    <hyperlink ref="D33" r:id="rId19" display="https://file.elecfans.com/web1/M00/BE/DF/pIYBAF7jMsqAGGQGAAXkupz0SS4756.pdf?filename=DS18B20-Maxim+Integrated.pdf"/>
-    <hyperlink ref="D35" r:id="rId20" display="https://www.st.com/content/ccc/resource/technical/document/datasheet/22/c6/56/13/dd/59/4b/43/CD00153511.pdf/files/CD00153511.pdf/jcr:content/translations/en.CD00153511.pdf"/>
+    <hyperlink ref="D11" r:id="rId7" display="https://statics3.seeedstudio.com/images/opl/datasheet/301010291.pdf"/>
+    <hyperlink ref="D12" r:id="rId8" display="https://statics3.seeedstudio.com/images/opl/datasheet/0010030P1.pdf"/>
+    <hyperlink ref="D16" r:id="rId9" display="https://statics3.seeedstudio.com/images/opl/datasheet/0130050P1.pdf"/>
+    <hyperlink ref="D18" r:id="rId10" display="https://www.seeedstudio.com/opl.html"/>
+    <hyperlink ref="D19" r:id="rId11" display="https://www.seeedstudio.com/opl.html"/>
+    <hyperlink ref="D20" r:id="rId12" display="https://statics3.seeedstudio.com/images/opl/datasheet/0330020P1.pdf"/>
+    <hyperlink ref="D22" r:id="rId13" display="https://www.mouser.com/datasheet/2/783/BST-BME280_DS001-11-844833.pdf"/>
+    <hyperlink ref="D23" r:id="rId14" display="https://www.mouser.ca/datasheet/2/308/74VHC125-D-1802300.pdf"/>
+    <hyperlink ref="D24" r:id="rId15" display="https://www.vishay.com/docs/83122/tdsl31.pdf"/>
+    <hyperlink ref="D25" r:id="rId16" display="https://file.elecfans.com/web1/M00/9B/19/pIYBAF0in5uADzK0ABNP3f9TvMM941.pdf?filename=PCF8574_HGSEMI.pdf"/>
+    <hyperlink ref="D26" r:id="rId17" display="https://www.mouser.ca/datasheet/2/15/RKJXK-1370937.pdf"/>
+    <hyperlink ref="D27" r:id="rId18" display="https://www.winbond.com/resource-files/w25q64jv%20spi%20revg%2012142016.pdf"/>
+    <hyperlink ref="D29" r:id="rId19" display="https://www.murata.com/en-us/products/productdetail?partno=PKLCS1212E40A1-R1"/>
+    <hyperlink ref="D30" r:id="rId20" display="https://www.st.com/content/ccc/resource/technical/document/datasheet/b1/e0/c6/77/e6/54/4c/16/CD00000929.pdf/files/CD00000929.pdf/jcr:content/translations/en.CD00000929.pdf"/>
+    <hyperlink ref="D31" r:id="rId21" display="https://file.elecfans.com/web1/M00/BE/DF/pIYBAF7jMsqAGGQGAAXkupz0SS4756.pdf?filename=DS18B20-Maxim+Integrated.pdf"/>
+    <hyperlink ref="D33" r:id="rId22" display="https://www.st.com/content/ccc/resource/technical/document/datasheet/22/c6/56/13/dd/59/4b/43/CD00153511.pdf/files/CD00153511.pdf/jcr:content/translations/en.CD00153511.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
